--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdBank.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdBank.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9813D45-0940-48DF-93DA-F36F413868A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1441A0DA-D033-4603-88D9-AAF05125AE9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -197,10 +197,6 @@
   <si>
     <t>BankCode %</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BankCode Asc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>行庫資料檔</t>
@@ -835,18 +831,18 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="21.5" style="3"/>
+    <col min="7" max="7" width="23.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="21.44140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>21</v>
       </c>
@@ -855,13 +851,13 @@
         <v>31</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="19"/>
       <c r="B2" s="20"/>
       <c r="C2" s="12" t="s">
@@ -874,20 +870,20 @@
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>25</v>
       </c>
@@ -898,7 +894,7 @@
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>26</v>
       </c>
@@ -909,7 +905,7 @@
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>27</v>
       </c>
@@ -920,7 +916,7 @@
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>28</v>
       </c>
@@ -931,7 +927,7 @@
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>29</v>
       </c>
@@ -954,7 +950,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
         <v>1</v>
       </c>
@@ -962,7 +958,7 @@
         <v>32</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>9</v>
@@ -975,15 +971,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="18">
         <v>2</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>9</v>
@@ -994,15 +990,15 @@
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
         <v>3</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>11</v>
@@ -1015,15 +1011,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
         <v>4</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>11</v>
@@ -1036,7 +1032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
         <v>5</v>
       </c>
@@ -1055,7 +1051,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
         <v>6</v>
       </c>
@@ -1076,7 +1072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
         <v>7</v>
       </c>
@@ -1095,7 +1091,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="18">
         <v>8</v>
       </c>
@@ -1116,7 +1112,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -1125,7 +1121,7 @@
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
@@ -1134,7 +1130,7 @@
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="18"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
@@ -1143,7 +1139,7 @@
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="18"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -1152,7 +1148,7 @@
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="18"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
@@ -1161,7 +1157,7 @@
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="18"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
@@ -1170,7 +1166,7 @@
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="18"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
@@ -1179,7 +1175,7 @@
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="18"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
@@ -1188,7 +1184,7 @@
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="18"/>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
@@ -1197,7 +1193,7 @@
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="18"/>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
@@ -1206,7 +1202,7 @@
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
@@ -1215,7 +1211,7 @@
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="18"/>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
@@ -1246,18 +1242,18 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="71.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="71.109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1268,37 +1264,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="B4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdBank.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdBank.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1441A0DA-D033-4603-88D9-AAF05125AE9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE15864-E274-4DD7-81E4-337A3303CBF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -207,10 +207,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>BankItem %</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>BranchItem</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -256,6 +252,10 @@
   </si>
   <si>
     <t>bankItemLike</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BankCode % ,AND BranchCode % ,AND BankItem %</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -876,7 +876,7 @@
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="14"/>
@@ -958,7 +958,7 @@
         <v>32</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>9</v>
@@ -976,10 +976,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>9</v>
@@ -998,7 +998,7 @@
         <v>35</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>11</v>
@@ -1016,10 +1016,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>11</v>
@@ -1242,7 +1242,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1266,35 +1266,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdBank.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdBank.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE15864-E274-4DD7-81E4-337A3303CBF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741484E8-D1AB-44EE-86F0-AABA44E5603A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="53">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -256,6 +256,22 @@
   </si>
   <si>
     <t>BankCode % ,AND BranchCode % ,AND BankItem %</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>啟用記號</t>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y:啟用
+N:停用</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -350,7 +366,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -361,6 +377,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCFF"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -435,9 +457,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -447,16 +466,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -465,9 +484,6 @@
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -485,6 +501,12 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -505,9 +527,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -545,9 +567,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -580,26 +602,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -632,26 +637,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -825,400 +813,421 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.44140625" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="21.44140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="12" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="18">
+      <c r="A9" s="16">
         <v>1</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="16">
         <v>3</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18" t="s">
+      <c r="F9" s="16"/>
+      <c r="G9" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="18">
+      <c r="A10" s="16">
         <v>2</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="16">
         <v>4</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="18">
+      <c r="A11" s="16">
         <v>3</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="16">
         <v>50</v>
       </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18" t="s">
+      <c r="F11" s="16"/>
+      <c r="G11" s="16" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="18">
+      <c r="A12" s="16">
         <v>4</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="16">
         <v>50</v>
       </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18" t="s">
+      <c r="F12" s="16"/>
+      <c r="G12" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="18">
+    <row r="13" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="16">
         <v>5</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="16">
+        <v>6</v>
+      </c>
+      <c r="B14" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D14" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18" t="s">
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="18">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="16">
+        <v>7</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="16">
         <v>6</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="18" t="s">
+      <c r="F15" s="16"/>
+      <c r="G15" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="16">
+        <v>8</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="16">
         <v>9</v>
       </c>
-      <c r="E14" s="18">
+      <c r="B17" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="16">
         <v>6</v>
       </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18" t="s">
+      <c r="F17" s="16"/>
+      <c r="G17" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="18">
-        <v>7</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="18">
-        <v>8</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="18">
-        <v>6</v>
-      </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-    </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1240,7 +1249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdBank.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdBank.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741484E8-D1AB-44EE-86F0-AABA44E5603A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E02F552-117A-4C6F-9FDB-F085A42603CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -127,9 +127,6 @@
     <t>建檔日期時間</t>
   </si>
   <si>
-    <t>DATE</t>
-  </si>
-  <si>
     <t>CreateEmpNo</t>
   </si>
   <si>
@@ -273,6 +270,9 @@
     <t>Y:啟用
 N:停用</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -496,17 +496,17 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -816,7 +816,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -831,40 +831,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="18"/>
+      <c r="A1" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="20"/>
       <c r="C1" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E1" s="9"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>22</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>23</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="18"/>
+      <c r="A3" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="20"/>
       <c r="C3" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="9"/>
@@ -872,10 +872,10 @@
       <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="18"/>
+      <c r="A4" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="20"/>
       <c r="C4" s="14"/>
       <c r="D4" s="13"/>
       <c r="E4" s="9"/>
@@ -883,10 +883,10 @@
       <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="18"/>
+      <c r="A5" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="20"/>
       <c r="C5" s="14"/>
       <c r="D5" s="13"/>
       <c r="E5" s="9"/>
@@ -894,10 +894,10 @@
       <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="18"/>
+      <c r="A6" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="20"/>
       <c r="C6" s="14"/>
       <c r="D6" s="13"/>
       <c r="E6" s="9"/>
@@ -905,10 +905,10 @@
       <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="18"/>
+      <c r="A7" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="20"/>
       <c r="C7" s="14"/>
       <c r="D7" s="13"/>
       <c r="E7" s="9"/>
@@ -917,7 +917,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>3</v>
@@ -943,10 +943,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>9</v>
@@ -964,10 +964,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>9</v>
@@ -983,10 +983,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>11</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1004,10 +1004,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>11</v>
@@ -1024,21 +1024,21 @@
       <c r="A13" s="16">
         <v>5</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="D13" s="17" t="s">
         <v>50</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>51</v>
       </c>
       <c r="E13" s="4">
         <v>1</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1052,7 +1052,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
@@ -1065,10 +1065,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>16</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>9</v>
@@ -1086,13 +1086,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="D16" s="16" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
@@ -1105,10 +1105,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>20</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>9</v>
@@ -1275,35 +1275,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
